--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472688B-3D4B-4658-B97A-A2862484D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453022E-9C98-453D-97A8-8A49EC17D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,54 @@
   <si>
     <t>수미산 정화 보상 받기(레벨 100만 이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECOND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMission2</t>
+  </si>
+  <si>
+    <t>SMission3</t>
+  </si>
+  <si>
+    <t>SMission4</t>
+  </si>
+  <si>
+    <t>SMission5</t>
+  </si>
+  <si>
+    <t>SMission6</t>
+  </si>
+  <si>
+    <t>SMission7</t>
+  </si>
+  <si>
+    <t>SMission8</t>
+  </si>
+  <si>
+    <t>EventMissionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 보상 받기(영혼의숲 25000 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른전투 1회 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMission9</t>
   </si>
 </sst>
 </file>
@@ -510,14 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
@@ -525,7 +574,7 @@
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +599,11 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -576,8 +628,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -602,8 +657,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -628,8 +686,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -654,8 +715,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -680,8 +744,11 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -706,8 +773,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -732,8 +802,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -757,6 +830,270 @@
       </c>
       <c r="H9">
         <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8800</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8800</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8800</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>8800</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>8800</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8800</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8800</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8800</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>8800</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453022E-9C98-453D-97A8-8A49EC17D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8102BB-6371-4D10-BCBE-4B23CBE93D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8102BB-6371-4D10-BCBE-4B23CBE93D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A76DCE-F44B-4605-8669-EE6DB9859919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F18">
         <v>5</v>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A76DCE-F44B-4605-8669-EE6DB9859919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9F585-3AE7-4F14-B6D8-D788D413FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고양이 요괴전 클리어 또는 소탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비전 클리어 또는 소탕(레벨 300이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,18 @@
   </si>
   <si>
     <t>SMission9</t>
+  </si>
+  <si>
+    <t>문파 점수 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견공 먹이주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산 클리어하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,7 +569,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -611,16 +619,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>8800</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -629,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -640,16 +648,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>8800</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -658,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -669,16 +677,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>8800</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -687,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -710,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -739,13 +747,13 @@
         <v>4</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -768,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -797,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -811,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -826,13 +834,13 @@
         <v>5</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -840,10 +848,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -852,7 +860,7 @@
         <v>8802</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -861,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -869,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -881,7 +889,7 @@
         <v>8802</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -890,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -898,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -910,7 +918,7 @@
         <v>8802</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -919,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -927,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -939,7 +947,7 @@
         <v>8802</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -948,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -956,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -968,7 +976,7 @@
         <v>8802</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -977,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -985,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -997,7 +1005,7 @@
         <v>8802</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1006,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1014,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
@@ -1035,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1043,10 +1051,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1064,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1072,10 +1080,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1093,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EventMission.xlsx
+++ b/Assets/06.Table/EventMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9F585-3AE7-4F14-B6D8-D788D413FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D267F-8D4F-46EC-A018-555032177B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EventMission" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8800</v>
+        <v>8802</v>
       </c>
       <c r="F9">
         <v>5</v>
